--- a/Noutati/Pias_Classical/PiasClassicalNoutati.xlsx
+++ b/Noutati/Pias_Classical/PiasClassicalNoutati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Bancila\Desktop\SupplierListManagerProject\Noutati\Pias_Classical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A02F05-1EA2-4595-B302-8917F7D77CA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2320658-C515-408B-9422-D465F67585D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4188" yWindow="4188" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>

--- a/Noutati/Pias_Classical/PiasClassicalNoutati.xlsx
+++ b/Noutati/Pias_Classical/PiasClassicalNoutati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Bancila\Desktop\SupplierListManagerProject\Noutati\Pias_Classical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2320658-C515-408B-9422-D465F67585D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531AAB3C-F09F-4F7C-9C51-973B52DAF63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6744" yWindow="2628" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>

--- a/Noutati/Pias_Classical/PiasClassicalNoutati.xlsx
+++ b/Noutati/Pias_Classical/PiasClassicalNoutati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Bancila\Desktop\SupplierListManagerProject\Noutati\Pias_Classical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531AAB3C-F09F-4F7C-9C51-973B52DAF63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E46C5B-464E-4F89-978E-CCEA5DA61C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6744" yWindow="2628" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5052" yWindow="1536" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>

--- a/Noutati/Pias_Classical/PiasClassicalNoutati.xlsx
+++ b/Noutati/Pias_Classical/PiasClassicalNoutati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Bancila\Desktop\SupplierListManagerProject\Noutati\Pias_Classical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E46C5B-464E-4F89-978E-CCEA5DA61C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1251B3-351F-4FEC-90EA-C1130A822D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5052" yWindow="1536" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34680" yWindow="3648" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
